--- a/Pi/OpenMP/Monte Carlo.xlsx
+++ b/Pi/OpenMP/Monte Carlo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mrigankdoshy/Documents/Code/Research Project/Monte Carlo Simulation/Monte-Carlo-Simulation/Pi/OpenMP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041D83E1-69D5-7842-855A-E95B303C39D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2581CE-9A24-224E-8A1A-DA9758C33C0A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{4AF651A6-293A-4B4A-9019-CD2B2C944083}"/>
+    <workbookView xWindow="4040" yWindow="1460" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{4AF651A6-293A-4B4A-9019-CD2B2C944083}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -306,7 +306,9 @@
       <c:valAx>
         <c:axId val="2095331391"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -369,6 +371,8 @@
         <c:axId val="2095333023"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="3.2"/>
+          <c:min val="2.9"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -579,6 +583,50 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet4!$A$14:$A$21</c:f>
@@ -667,6 +715,8 @@
         <c:axId val="2132903743"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1000000000"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -729,6 +779,8 @@
         <c:axId val="2133082223"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="20.16"/>
+          <c:min val="1.0000000000000004E-5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1083,6 +1135,8 @@
         <c:axId val="2087330943"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2.2000000000000002"/>
+          <c:min val="0.2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1375,6 +1429,8 @@
         <c:axId val="2092795279"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="65"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1437,6 +1493,8 @@
         <c:axId val="2092796911"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="3.1417999999999999"/>
+          <c:min val="3.1413000000000002"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3774,10 +3832,10 @@
       <xdr:rowOff>13054</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>16933</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>810638</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>33867</xdr:rowOff>
+      <xdr:rowOff>27022</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3810,10 +3868,10 @@
       <xdr:rowOff>21166</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>516467</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>16933</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3841,15 +3899,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:colOff>12699</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>173566</xdr:rowOff>
+      <xdr:rowOff>173565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>397934</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>12958</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>12958</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3882,10 +3940,10 @@
       <xdr:rowOff>10160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>20320</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>10160</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4224,8 +4282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5379C35C-AB5D-1C43-926A-B24CF2400221}">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="125" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="57" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
